--- a/Behavioral Expt/DFC Datasets.xlsx
+++ b/Behavioral Expt/DFC Datasets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>Models</t>
   </si>
@@ -60,15 +60,6 @@
     <t>data analysis</t>
   </si>
   <si>
-    <t>.dta</t>
-  </si>
-  <si>
-    <t>.xlsx</t>
-  </si>
-  <si>
-    <t>08a_datamgt_foodexp</t>
-  </si>
-  <si>
     <t>09a_datamgt_kcal</t>
   </si>
   <si>
@@ -109,15 +100,6 @@
   </si>
   <si>
     <t>kcal/cap</t>
-  </si>
-  <si>
-    <t>status (verified/for verification)</t>
-  </si>
-  <si>
-    <t>verified</t>
-  </si>
-  <si>
-    <t>changes</t>
   </si>
   <si>
     <t>Data sets</t>
@@ -442,9 +424,6 @@
     <t>12c_datamgt_ihdmpdishspent.do</t>
   </si>
   <si>
-    <t>10c_datamgt_kcal.do</t>
-  </si>
-  <si>
     <t>09c_datamgt_kcalcap.do</t>
   </si>
   <si>
@@ -493,47 +472,99 @@
     <t>12d_analysis_ihdmdishspent.do</t>
   </si>
   <si>
-    <t>06b_analysis_foodexp.dta</t>
-  </si>
-  <si>
-    <t>07b_analysis_ricecap.dta</t>
-  </si>
-  <si>
-    <t>08b_analysis_HDDS.dta</t>
-  </si>
-  <si>
-    <t>09b_analysis_kcalcap.dta</t>
-  </si>
-  <si>
-    <t>10b_analysis_kcal.dta</t>
-  </si>
-  <si>
-    <t>11b_analysis_kcalocc.dta</t>
-  </si>
-  <si>
-    <t>06d_analysis_ihdmpfoodexp.dta</t>
-  </si>
-  <si>
-    <t>07d_analysis_ihdmpricecap.dta</t>
-  </si>
-  <si>
-    <t>08d_analysis_ihdmphdds.dta</t>
-  </si>
-  <si>
-    <t>09d_analysis_ihdmpkcalcap.dta</t>
-  </si>
-  <si>
-    <t>10d_analysis_ihdmpkcal.dta</t>
-  </si>
-  <si>
-    <t>12d_analysis_ihdmdishspent.dta</t>
+    <t>syntax for data analysis</t>
+  </si>
+  <si>
+    <t>data files</t>
+  </si>
+  <si>
+    <t>excel files for data management</t>
+  </si>
+  <si>
+    <t>syntax for data cleaning and data management</t>
+  </si>
+  <si>
+    <t>Results in data analysis (Excel File)</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>change filename to</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>08a_datamgt_foodexp.xlsx/
+budgetshare_datamgt</t>
+  </si>
+  <si>
+    <t>10c_datamgt_ihdmpkcal.do</t>
+  </si>
+  <si>
+    <t>06a_datamgt_foodexp</t>
+  </si>
+  <si>
+    <t>10a_datamgt_kcal</t>
+  </si>
+  <si>
+    <t>12c_datamgt_ihdmpdishspent</t>
+  </si>
+  <si>
+    <t>000a_multicollinearity check.do</t>
+  </si>
+  <si>
+    <t>000b_combined analyses.do</t>
+  </si>
+  <si>
+    <t>000c_combined analyses_ihdmp.do</t>
+  </si>
+  <si>
+    <t>06analysis_foodexp.dta</t>
+  </si>
+  <si>
+    <t>07analysis_ricecap.dta</t>
+  </si>
+  <si>
+    <t>08analysis_HDDS.dta</t>
+  </si>
+  <si>
+    <t>09analysis_kcalcap.dta</t>
+  </si>
+  <si>
+    <t>10analysis_kcal.dta</t>
+  </si>
+  <si>
+    <t>11analysis_kcalocc.dta</t>
+  </si>
+  <si>
+    <t>06analysis_ihdmpfoodexp.dta</t>
+  </si>
+  <si>
+    <t>07analysis_ihdmpricecap.dta</t>
+  </si>
+  <si>
+    <t>08analysis_ihdmphdds.dta</t>
+  </si>
+  <si>
+    <t>09analysis_ihdmpkcalcap.dta</t>
+  </si>
+  <si>
+    <t>10analysis_ihdmpkcal.dta</t>
+  </si>
+  <si>
+    <t>12analysis_ihdmdishspent.dta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +657,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -656,18 +693,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -690,6 +727,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -780,60 +857,93 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,826 +1333,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="32.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="39.7109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="35.140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="22.85546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O1" s="2" t="s">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="P1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="28"/>
+      <c r="K3" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="J19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="H20" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="C21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="C22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="2">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="1">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="C28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M28" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="C29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="M30" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="M31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L31" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="C32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="16" t="s">
+    <row r="33" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Behavioral Expt/DFC Datasets.xlsx
+++ b/Behavioral Expt/DFC Datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="19185" yWindow="-15" windowWidth="9630" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
   <si>
     <t>Models</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>12analysis_ihdmdishspent.dta</t>
+  </si>
+  <si>
+    <t>06results_foodexp.xlsx</t>
   </si>
 </sst>
 </file>
@@ -937,14 +940,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -1336,20 +1339,20 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.85546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="33.140625" style="14" customWidth="1"/>
@@ -1375,26 +1378,26 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1778,7 +1781,7 @@
       <c r="G20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="27" t="s">
         <v>134</v>
       </c>
       <c r="I20" s="13" t="s">
@@ -1786,6 +1789,9 @@
       </c>
       <c r="J20" s="14" t="s">
         <v>163</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="M20" s="1">
         <v>6</v>
@@ -1990,7 +1996,7 @@
       <c r="G27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="27" t="s">
         <v>140</v>
       </c>
       <c r="I27" s="13" t="s">
